--- a/LFS.xlsx
+++ b/LFS.xlsx
@@ -4,19 +4,26 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="caseManager" sheetId="1" r:id="rId1"/>
+    <sheet name="sceneManager" sheetId="1" r:id="rId1"/>
     <sheet name="旅法师营地登录" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="我的_个人主页" sheetId="3" r:id="rId3"/>
+    <sheet name="我的_消息通知" sheetId="4" r:id="rId4"/>
+    <sheet name="我的_我的物品" sheetId="5" r:id="rId5"/>
+    <sheet name="我的_收藏历史" sheetId="6" r:id="rId6"/>
+    <sheet name="我的_每日任务" sheetId="7" r:id="rId7"/>
+    <sheet name="我的_成就" sheetId="8" r:id="rId8"/>
+    <sheet name="我的_资产" sheetId="9" r:id="rId9"/>
+    <sheet name="我的_播放列表" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="173">
   <si>
     <t>orderID</t>
   </si>
@@ -24,22 +31,70 @@
     <t>caseName</t>
   </si>
   <si>
-    <t>isRun</t>
+    <t>caseStauts</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>登录</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
     <t>旅法师营地登录</t>
   </si>
   <si>
-    <t>info</t>
+    <t>run</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>我的_个人主页</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>我的_消息通知</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>我的_我的物品</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>我的_收藏历史</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>我的_每日任务</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>我的_成就</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>我的_资产</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>我的_播放列表</t>
+  </si>
+  <si>
+    <t>caseInfo</t>
   </si>
   <si>
     <t>position</t>
@@ -66,9 +121,6 @@
     <t>click</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>点击开始用使用</t>
   </si>
   <si>
@@ -81,9 +133,6 @@
     <t>com.android.packageinstaller:id/permission_allow_button</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>点击tab栏中[我的]</t>
   </si>
   <si>
@@ -96,9 +145,6 @@
     <t>com.gonlan.iplaymtg:id/login_tv</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>点击账号密码登录</t>
   </si>
   <si>
@@ -117,9 +163,6 @@
     <t>86_18612977127</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>输入密码信息</t>
   </si>
   <si>
@@ -168,13 +211,337 @@
     <t>13</t>
   </si>
   <si>
-    <t>校验登录结果</t>
+    <t>校验登录是否成功</t>
   </si>
   <si>
     <t>assert</t>
   </si>
   <si>
     <t>你好测试</t>
+  </si>
+  <si>
+    <t>点击头像右侧的个人主页</t>
+  </si>
+  <si>
+    <t>com.gonlan.iplaymtg:id/right_tv</t>
+  </si>
+  <si>
+    <t>获取主页个人名称</t>
+  </si>
+  <si>
+    <t>xpath</t>
+  </si>
+  <si>
+    <t>(//*[@resource-id="com.gonlan.iplaymtg:id/user_name"])[1]</t>
+  </si>
+  <si>
+    <t>校验个人名称是否正确</t>
+  </si>
+  <si>
+    <t>获取动态中用户名称</t>
+  </si>
+  <si>
+    <t>(//*[@resource-id="com.gonlan.iplaymtg:id/user_name"])[2]</t>
+  </si>
+  <si>
+    <t>校验动态中用户名称</t>
+  </si>
+  <si>
+    <t>点击内容标签</t>
+  </si>
+  <si>
+    <t>com.gonlan.iplaymtg:id/mains_tv</t>
+  </si>
+  <si>
+    <t>获取内容中用户名称</t>
+  </si>
+  <si>
+    <t>校验内容中用户名称</t>
+  </si>
+  <si>
+    <t>点击回复标签</t>
+  </si>
+  <si>
+    <t>com.gonlan.iplaymtg:id/replay_tv</t>
+  </si>
+  <si>
+    <t>获取回复中用户名称</t>
+  </si>
+  <si>
+    <t>校验回复中用户名称</t>
+  </si>
+  <si>
+    <t>点击返回按钮</t>
+  </si>
+  <si>
+    <t>com.gonlan.iplaymtg:id/finish1</t>
+  </si>
+  <si>
+    <t>点击我的中消息通知</t>
+  </si>
+  <si>
+    <t>com.gonlan.iplaymtg:id/user_follow_iv</t>
+  </si>
+  <si>
+    <t>获取消息通知标题信息</t>
+  </si>
+  <si>
+    <t>com.gonlan.iplaymtg:id/page_title_tv1</t>
+  </si>
+  <si>
+    <t>校验消息通知标题内容</t>
+  </si>
+  <si>
+    <t>消息通知</t>
+  </si>
+  <si>
+    <t>进入收到的回帖</t>
+  </si>
+  <si>
+    <t>(//*[@resource-id="com.gonlan.iplaymtg:id/iv"])[1]</t>
+  </si>
+  <si>
+    <t>获取收到的回帖标题信息</t>
+  </si>
+  <si>
+    <t>com.gonlan.iplaymtg:id/page_title_tv</t>
+  </si>
+  <si>
+    <t>校验收到回帖标题内容</t>
+  </si>
+  <si>
+    <t>收到的回帖</t>
+  </si>
+  <si>
+    <t>点击左上角返回按钮</t>
+  </si>
+  <si>
+    <t>com.gonlan.iplaymtg:id/page_cancel_iv</t>
+  </si>
+  <si>
+    <t>进入赞</t>
+  </si>
+  <si>
+    <t>(//*[@resource-id="com.gonlan.iplaymtg:id/iv"])[2]</t>
+  </si>
+  <si>
+    <t>获取赞的标题信息</t>
+  </si>
+  <si>
+    <t>校验赞的标题内容</t>
+  </si>
+  <si>
+    <t>赞</t>
+  </si>
+  <si>
+    <t>进入@我</t>
+  </si>
+  <si>
+    <t>(//*[@resource-id="com.gonlan.iplaymtg:id/iv"])[3]</t>
+  </si>
+  <si>
+    <t>获取@我的标题信息</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>校验@我的标题内容</t>
+  </si>
+  <si>
+    <t>@我</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>进入消息通知</t>
+  </si>
+  <si>
+    <t>(//*[@resource-id="com.gonlan.iplaymtg:id/iv"])[4]</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>获取消息通知的标题信息</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>校验消息通知的标题内容</t>
+  </si>
+  <si>
+    <t>系统通知</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>点击消息通知右上角设置按钮</t>
+  </si>
+  <si>
+    <t>com.gonlan.iplaymtg:id/page_right_iv</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>获取设置页面标题信息</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>校验设置页面标题信息</t>
+  </si>
+  <si>
+    <t>设置</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>关闭收到的回帖功能</t>
+  </si>
+  <si>
+    <t>(//*[@resource-id="com.gonlan.iplaymtg:id/right_icon"])[1]</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>打开收到的回帖功能</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>关闭赞功能</t>
+  </si>
+  <si>
+    <t>(//*[@resource-id="com.gonlan.iplaymtg:id/right_icon"])[2]</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>打开赞功能</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>关闭@我功能</t>
+  </si>
+  <si>
+    <t>(//*[@resource-id="com.gonlan.iplaymtg:id/right_icon"])[3]</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>打开@我功能</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>关闭系统通知功能</t>
+  </si>
+  <si>
+    <t>(//*[@resource-id="com.gonlan.iplaymtg:id/right_icon"])[4]</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>打开系统通知功能</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>关闭私信通知功能</t>
+  </si>
+  <si>
+    <t>(//*[@resource-id="com.gonlan.iplaymtg:id/right_icon"])[5]</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>打开私信通知功能</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>点击最近一个聊天人</t>
+  </si>
+  <si>
+    <t>(//*[@resource-id="com.gonlan.iplaymtg:id/conversation_logo"])[4]</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>私信聊天框中输入内容</t>
+  </si>
+  <si>
+    <t>com.gonlan.iplaymtg:id/et_sendmessage</t>
+  </si>
+  <si>
+    <t>测试私信功能gaeaUUID</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>点击发送按钮</t>
+  </si>
+  <si>
+    <t>com.gonlan.iplaymtg:id/btn_send</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>获取最后新的消息</t>
+  </si>
+  <si>
+    <t>xpathLast</t>
+  </si>
+  <si>
+    <t>//*[@resource-id="com.gonlan.iplaymtg:id/chat_item_content_text"]</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>等待5秒钟</t>
+  </si>
+  <si>
+    <t>Thread</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>校验发送内容是否一致</t>
   </si>
 </sst>
 </file>
@@ -184,8 +551,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -212,7 +579,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,23 +629,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,13 +684,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -294,17 +691,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -323,29 +713,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -353,6 +720,180 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -362,181 +903,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,54 +914,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -609,6 +928,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,13 +976,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -655,10 +1022,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -667,137 +1034,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -809,6 +1176,24 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
@@ -1161,15 +1546,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.25" defaultRowHeight="22" customHeight="1" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="14.25" defaultRowHeight="22" customHeight="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="16384" width="14.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.75" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="14.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
@@ -1194,9 +1581,113 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" customHeight="1" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N41" sqref="N41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1206,8 +1697,8 @@
   <sheetPr/>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.25" defaultRowHeight="22" customHeight="1" outlineLevelCol="5"/>
@@ -1221,56 +1712,56 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:6">
       <c r="A1" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>12</v>
+      <c r="B2" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
@@ -1278,33 +1769,33 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
@@ -1312,33 +1803,33 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
@@ -1346,39 +1837,39 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:4">
@@ -1386,78 +1877,78 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1470,6 +1961,999 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.25" defaultRowHeight="22" customHeight="1" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="16.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="66.625" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="16.25" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2"/>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3"/>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4"/>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5"/>
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6"/>
+    </row>
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7"/>
+    </row>
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8"/>
+    </row>
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9"/>
+    </row>
+    <row r="10" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10"/>
+    </row>
+    <row r="11" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11"/>
+    </row>
+    <row r="12" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12"/>
+    </row>
+    <row r="13" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13"/>
+    </row>
+    <row r="14" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.25" defaultRowHeight="22" customHeight="1" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="16.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="77.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="16.25" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2"/>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3"/>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4"/>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5"/>
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6"/>
+    </row>
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7"/>
+    </row>
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8"/>
+    </row>
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9"/>
+    </row>
+    <row r="10" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10"/>
+    </row>
+    <row r="11" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11"/>
+    </row>
+    <row r="12" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12"/>
+    </row>
+    <row r="13" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13"/>
+    </row>
+    <row r="14" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:5">
+      <c r="A16" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:5">
+      <c r="A18" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:5">
+      <c r="A20" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:5">
+      <c r="A22" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:4">
+      <c r="A23" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:5">
+      <c r="A24" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:5">
+      <c r="A26" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:5">
+      <c r="A27" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:5">
+      <c r="A28" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:5">
+      <c r="A29" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:5">
+      <c r="A30" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:5">
+      <c r="A31" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:5">
+      <c r="A32" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:5">
+      <c r="A33" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:5">
+      <c r="A34" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:5">
+      <c r="A35" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:6">
+      <c r="A36" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:5">
+      <c r="A37" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:5">
+      <c r="A38" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:4">
+      <c r="A39" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="40" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A40" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1478,8 +2962,55 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L40" sqref="L40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M42" sqref="M42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O41" sqref="O41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/LFS.xlsx
+++ b/LFS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12465" firstSheet="3" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="sceneManager" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="我的_成就" sheetId="8" r:id="rId9"/>
     <sheet name="我的_资产" sheetId="9" r:id="rId10"/>
     <sheet name="我的_播放列表" sheetId="10" r:id="rId11"/>
+    <sheet name="我的_草稿箱" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="336">
   <si>
     <t>orderID</t>
   </si>
@@ -933,6 +934,105 @@
   </si>
   <si>
     <t>20</t>
+  </si>
+  <si>
+    <t>点击草稿箱</t>
+  </si>
+  <si>
+    <t>//*[@text="草稿箱"]</t>
+  </si>
+  <si>
+    <t>获取草稿箱标签名称</t>
+  </si>
+  <si>
+    <t>com.gonlan.iplaymtg:id/normalTv</t>
+  </si>
+  <si>
+    <t>校验草稿箱标签名称是否正确</t>
+  </si>
+  <si>
+    <t>普通草稿</t>
+  </si>
+  <si>
+    <t>获取保存草稿名称</t>
+  </si>
+  <si>
+    <t>com.gonlan.iplaymtg:id/article_review</t>
+  </si>
+  <si>
+    <t>校验保存草稿名称是否正确</t>
+  </si>
+  <si>
+    <t>测试草稿保存</t>
+  </si>
+  <si>
+    <t>点击已经存在的普通草稿</t>
+  </si>
+  <si>
+    <t>获取草稿中的内容</t>
+  </si>
+  <si>
+    <t>com.gonlan.iplaymtg:id/content_tv</t>
+  </si>
+  <si>
+    <t>校验草稿中的内容是否正确</t>
+  </si>
+  <si>
+    <t>文字，图片，表情，套卡</t>
+  </si>
+  <si>
+    <t>com.gonlan.iplaymtg:id/cancelTv</t>
+  </si>
+  <si>
+    <t>点击设置按钮</t>
+  </si>
+  <si>
+    <t>com.gonlan.iplaymtg:id/moreIv</t>
+  </si>
+  <si>
+    <t>com.gonlan.iplaymtg:id/delete_cancel</t>
+  </si>
+  <si>
+    <t>点击文章草稿</t>
+  </si>
+  <si>
+    <t>com.gonlan.iplaymtg:id/articleTv</t>
+  </si>
+  <si>
+    <t>获取文章草稿中已保存的标题</t>
+  </si>
+  <si>
+    <t>校验文章草稿中已保存的标题是否正确</t>
+  </si>
+  <si>
+    <t>文章草稿保存测试</t>
+  </si>
+  <si>
+    <t>进入到文章草稿详情中</t>
+  </si>
+  <si>
+    <t>等待7秒</t>
+  </si>
+  <si>
+    <t>7000</t>
+  </si>
+  <si>
+    <t>获取文章草稿保存的内容</t>
+  </si>
+  <si>
+    <t>//*[@resource-id='vue-tinymce-editor']</t>
+  </si>
+  <si>
+    <t>校验文章草稿保存的内容是否正确</t>
+  </si>
+  <si>
+    <t>测试文章草稿保存</t>
+  </si>
+  <si>
+    <t>com.gonlan.iplaymtg:id/close_iv</t>
+  </si>
+  <si>
+    <t>com.gonlan.iplaymtg:id/cancelIv</t>
   </si>
 </sst>
 </file>
@@ -941,8 +1041,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -968,16 +1068,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1007,83 +1174,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1104,6 +1197,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1114,79 +1214,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1198,19 +1232,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1222,19 +1262,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1252,7 +1286,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1264,7 +1334,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1276,7 +1364,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1288,13 +1394,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1305,21 +1405,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1334,26 +1419,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1382,6 +1447,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1405,6 +1496,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1413,10 +1513,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1425,137 +1525,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1571,6 +1671,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -1580,27 +1686,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1609,12 +1700,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1966,8 +2051,8 @@
   <sheetPr/>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.25" defaultRowHeight="22" customHeight="1" outlineLevelCol="2"/>
@@ -2084,7 +2169,7 @@
         <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:3">
@@ -2167,13 +2252,13 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="5" t="s">
         <v>251</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -2186,16 +2271,16 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="C4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F4" s="4"/>
@@ -2205,16 +2290,16 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="3"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
@@ -2222,16 +2307,16 @@
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F6" s="4"/>
@@ -2241,16 +2326,16 @@
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="3"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
@@ -2258,16 +2343,16 @@
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F8" s="4"/>
@@ -2277,16 +2362,16 @@
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="E9" s="9"/>
+      <c r="E9" s="3"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
@@ -2294,16 +2379,16 @@
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F10" s="4"/>
@@ -2313,16 +2398,16 @@
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="E11" s="9"/>
+      <c r="E11" s="3"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
@@ -2330,13 +2415,13 @@
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="8" t="s">
+      <c r="C12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>266</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -2349,16 +2434,16 @@
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="8" t="s">
+      <c r="C13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F13" s="4"/>
@@ -2368,16 +2453,16 @@
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="E14" s="9"/>
+      <c r="E14" s="3"/>
       <c r="F14" s="4"/>
     </row>
     <row r="15" customHeight="1" spans="1:6">
@@ -2387,10 +2472,10 @@
       <c r="B15" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="8" t="s">
+      <c r="C15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>272</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -2405,13 +2490,13 @@
       <c r="B16" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="8" t="s">
+      <c r="C16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F16" s="4"/>
@@ -2423,7 +2508,7 @@
       <c r="B17" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -2437,7 +2522,7 @@
       <c r="B18" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -2454,7 +2539,7 @@
       <c r="B19" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -2476,7 +2561,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D24" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.25" defaultRowHeight="22" customHeight="1" outlineLevelCol="6"/>
@@ -2547,13 +2632,13 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>280</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -2566,16 +2651,16 @@
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>281</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="8" t="s">
         <v>74</v>
       </c>
       <c r="F5"/>
@@ -2585,16 +2670,16 @@
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="8"/>
       <c r="F6"/>
       <c r="G6" s="4"/>
     </row>
@@ -2602,13 +2687,13 @@
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>285</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="7" t="s">
         <v>286</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -2621,16 +2706,16 @@
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>287</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="8" t="s">
         <v>74</v>
       </c>
       <c r="F8"/>
@@ -2640,16 +2725,16 @@
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="E9" s="6"/>
+      <c r="E9" s="8"/>
       <c r="F9"/>
       <c r="G9" s="4"/>
     </row>
@@ -2657,13 +2742,13 @@
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="7" t="s">
         <v>291</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="7" t="s">
         <v>292</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -2676,16 +2761,16 @@
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="7" t="s">
         <v>293</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="8" t="s">
         <v>74</v>
       </c>
       <c r="F11"/>
@@ -2695,16 +2780,16 @@
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="E12" s="6"/>
+      <c r="E12" s="8"/>
       <c r="F12"/>
       <c r="G12" s="4"/>
     </row>
@@ -2712,13 +2797,13 @@
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="7" t="s">
         <v>99</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="7" t="s">
         <v>296</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -2731,13 +2816,13 @@
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="7" t="s">
         <v>297</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="7" t="s">
         <v>298</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -2750,13 +2835,13 @@
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="7" t="s">
         <v>300</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -2768,16 +2853,16 @@
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="7" t="s">
         <v>287</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="8" t="s">
         <v>74</v>
       </c>
       <c r="F16"/>
@@ -2786,29 +2871,29 @@
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="E17" s="6"/>
+      <c r="E17" s="8"/>
       <c r="F17"/>
     </row>
     <row r="18" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="7" t="s">
         <v>291</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="7" t="s">
         <v>292</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -2820,16 +2905,16 @@
       <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="7" t="s">
         <v>293</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="8" t="s">
         <v>74</v>
       </c>
       <c r="F19"/>
@@ -2838,29 +2923,29 @@
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="E20" s="6"/>
+      <c r="E20" s="8"/>
       <c r="F20"/>
     </row>
     <row r="21" customHeight="1" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="7" t="s">
         <v>99</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="7" t="s">
         <v>296</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -2871,16 +2956,481 @@
       <c r="A22" s="1" t="s">
         <v>302</v>
       </c>
+      <c r="B22" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.25" defaultRowHeight="22" customHeight="1" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="16.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="83.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="16.25" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
       <c r="B22" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="C24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:5">
+      <c r="A25" s="3">
+        <v>23</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2901,64 +3451,64 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.375" defaultRowHeight="22" customHeight="1" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="13.375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="16" style="9" customWidth="1"/>
-    <col min="3" max="3" width="98.625" style="8" customWidth="1"/>
-    <col min="4" max="16384" width="13.375" style="9" customWidth="1"/>
+    <col min="1" max="1" width="13.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16" style="3" customWidth="1"/>
+    <col min="3" max="3" width="98.625" style="5" customWidth="1"/>
+    <col min="4" max="16384" width="13.375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
-      <c r="A1" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="5" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3010,7 +3560,7 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="5" t="s">
         <v>42</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -3262,7 +3812,7 @@
     <col min="1" max="1" width="16.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="36.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="16.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="66.625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="66.625" style="12" customWidth="1"/>
     <col min="5" max="16384" width="16.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3296,7 +3846,7 @@
       <c r="C2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -3308,13 +3858,13 @@
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="7" t="s">
         <v>78</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="13" t="s">
         <v>79</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -3326,13 +3876,13 @@
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="7" t="s">
         <v>80</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="13">
         <v>1000</v>
       </c>
       <c r="F4"/>
@@ -3341,16 +3891,16 @@
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="8" t="s">
         <v>74</v>
       </c>
       <c r="F5"/>
@@ -3359,32 +3909,32 @@
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="13"/>
+      <c r="E6" s="8"/>
       <c r="F6"/>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="8" t="s">
         <v>74</v>
       </c>
       <c r="F7"/>
@@ -3393,29 +3943,29 @@
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="E8" s="13"/>
+      <c r="E8" s="8"/>
       <c r="F8"/>
     </row>
     <row r="9" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="7" t="s">
         <v>87</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="14" t="s">
         <v>88</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -3427,16 +3977,16 @@
       <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="8" t="s">
         <v>74</v>
       </c>
       <c r="F10"/>
@@ -3445,29 +3995,29 @@
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="13"/>
+      <c r="E11" s="8"/>
       <c r="F11"/>
     </row>
     <row r="12" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A12" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="7" t="s">
         <v>92</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="14" t="s">
         <v>93</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -3479,16 +4029,16 @@
       <c r="A13" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="8" t="s">
         <v>74</v>
       </c>
       <c r="F13"/>
@@ -3497,29 +4047,29 @@
       <c r="A14" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="E14" s="13"/>
+      <c r="E14" s="8"/>
       <c r="F14"/>
     </row>
     <row r="15" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="7" t="s">
         <v>99</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="13" t="s">
         <v>100</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -3584,7 +4134,7 @@
       <c r="C2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -3596,16 +4146,16 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="14" t="s">
+      <c r="C3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="8" t="s">
         <v>44</v>
       </c>
       <c r="F3"/>
@@ -3614,16 +4164,16 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="12" t="s">
+      <c r="C4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="8" t="s">
         <v>74</v>
       </c>
       <c r="F4"/>
@@ -3632,32 +4182,32 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E5" s="13"/>
+      <c r="E5" s="8"/>
       <c r="F5"/>
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="8" t="s">
         <v>44</v>
       </c>
       <c r="F6"/>
@@ -3666,16 +4216,16 @@
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="12" t="s">
+      <c r="C7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="8" t="s">
         <v>74</v>
       </c>
       <c r="F7"/>
@@ -3684,32 +4234,32 @@
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E8" s="13"/>
+      <c r="E8" s="8"/>
       <c r="F8"/>
     </row>
     <row r="9" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="12" t="s">
+      <c r="C9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="8" t="s">
         <v>44</v>
       </c>
       <c r="F9"/>
@@ -3718,16 +4268,16 @@
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="8" t="s">
         <v>44</v>
       </c>
       <c r="F10"/>
@@ -3736,16 +4286,16 @@
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="12" t="s">
+      <c r="C11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="8" t="s">
         <v>74</v>
       </c>
       <c r="F11"/>
@@ -3754,32 +4304,32 @@
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E12" s="13"/>
+      <c r="E12" s="8"/>
       <c r="F12"/>
     </row>
     <row r="13" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="12" t="s">
+      <c r="C13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="8" t="s">
         <v>44</v>
       </c>
       <c r="F13"/>
@@ -3788,16 +4338,16 @@
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="8" t="s">
         <v>44</v>
       </c>
       <c r="F14"/>
@@ -3806,16 +4356,16 @@
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="12" t="s">
+      <c r="C15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="8" t="s">
         <v>74</v>
       </c>
       <c r="F15"/>
@@ -3824,31 +4374,31 @@
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="E16" s="13"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" customHeight="1" spans="1:5">
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="12" t="s">
+      <c r="C17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="8" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3856,16 +4406,16 @@
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="8" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3873,16 +4423,16 @@
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="12" t="s">
+      <c r="C19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="8" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3890,31 +4440,31 @@
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="E20" s="13"/>
+      <c r="E20" s="8"/>
     </row>
     <row r="21" customHeight="1" spans="1:5">
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C21" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="12" t="s">
+      <c r="C21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="8" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3925,13 +4475,13 @@
       <c r="B22" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="8" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3942,13 +4492,13 @@
       <c r="B23" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="8" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3959,7 +4509,7 @@
       <c r="B24" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="8" t="s">
         <v>76</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -3973,13 +4523,13 @@
       <c r="B25" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="8" t="s">
         <v>51</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E25" s="8" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3990,13 +4540,13 @@
       <c r="B26" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="8" t="s">
         <v>51</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="8" t="s">
         <v>44</v>
       </c>
     </row>
@@ -4007,13 +4557,13 @@
       <c r="B27" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="8" t="s">
         <v>51</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="8" t="s">
         <v>44</v>
       </c>
     </row>
@@ -4024,13 +4574,13 @@
       <c r="B28" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="8" t="s">
         <v>51</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="8" t="s">
         <v>44</v>
       </c>
     </row>
@@ -4041,13 +4591,13 @@
       <c r="B29" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="8" t="s">
         <v>51</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="8" t="s">
         <v>44</v>
       </c>
     </row>
@@ -4058,13 +4608,13 @@
       <c r="B30" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="8" t="s">
         <v>51</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="8" t="s">
         <v>44</v>
       </c>
     </row>
@@ -4075,13 +4625,13 @@
       <c r="B31" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="8" t="s">
         <v>51</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="E31" s="8" t="s">
         <v>44</v>
       </c>
     </row>
@@ -4092,13 +4642,13 @@
       <c r="B32" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="8" t="s">
         <v>51</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E32" s="13" t="s">
+      <c r="E32" s="8" t="s">
         <v>44</v>
       </c>
     </row>
@@ -4109,13 +4659,13 @@
       <c r="B33" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="8" t="s">
         <v>51</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E33" s="8" t="s">
         <v>44</v>
       </c>
     </row>
@@ -4126,13 +4676,13 @@
       <c r="B34" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="8" t="s">
         <v>51</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E34" s="13" t="s">
+      <c r="E34" s="8" t="s">
         <v>44</v>
       </c>
     </row>
@@ -4143,13 +4693,13 @@
       <c r="B35" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E35" s="13" t="s">
+      <c r="E35" s="8" t="s">
         <v>44</v>
       </c>
     </row>
@@ -4160,13 +4710,13 @@
       <c r="B36" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="8" t="s">
         <v>51</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E36" s="13" t="s">
+      <c r="E36" s="8" t="s">
         <v>44</v>
       </c>
     </row>
@@ -4177,7 +4727,7 @@
       <c r="B37" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -4197,13 +4747,13 @@
       <c r="B38" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E38" s="13" t="s">
+      <c r="E38" s="8" t="s">
         <v>44</v>
       </c>
     </row>
@@ -4228,13 +4778,13 @@
       <c r="B40" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="8" t="s">
         <v>161</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E40" s="13" t="s">
+      <c r="E40" s="8" t="s">
         <v>74</v>
       </c>
     </row>
@@ -4256,13 +4806,13 @@
       <c r="A42" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C42" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D42" s="12" t="s">
+      <c r="C42" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>114</v>
       </c>
       <c r="E42" s="1" t="s">
@@ -4274,13 +4824,13 @@
       <c r="A43" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="C43" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D43" s="12" t="s">
+      <c r="C43" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" s="7" t="s">
         <v>167</v>
       </c>
       <c r="E43" s="1" t="s">
@@ -4356,13 +4906,13 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="7" t="s">
         <v>169</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -4374,16 +4924,16 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="12" t="s">
+      <c r="C4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="8" t="s">
         <v>74</v>
       </c>
       <c r="F4"/>
@@ -4392,32 +4942,32 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="E5" s="13"/>
+      <c r="E5" s="8"/>
       <c r="F5"/>
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="8" t="s">
         <v>74</v>
       </c>
       <c r="F6"/>
@@ -4426,29 +4976,29 @@
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="E7" s="13"/>
+      <c r="E7" s="8"/>
       <c r="F7"/>
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="7" t="s">
         <v>178</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -4460,16 +5010,16 @@
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="8" t="s">
         <v>74</v>
       </c>
       <c r="F9"/>
@@ -4478,29 +5028,29 @@
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="E10" s="13"/>
+      <c r="E10" s="8"/>
       <c r="F10"/>
     </row>
     <row r="11" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="7" t="s">
         <v>183</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -4512,16 +5062,16 @@
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="8" t="s">
         <v>74</v>
       </c>
       <c r="F12"/>
@@ -4530,29 +5080,29 @@
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="E13" s="13"/>
+      <c r="E13" s="8"/>
       <c r="F13"/>
     </row>
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="12" t="s">
+      <c r="C14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>114</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -4628,13 +5178,13 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="7" t="s">
         <v>187</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="7" t="s">
         <v>188</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -4647,16 +5197,16 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="7" t="s">
         <v>189</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="8" t="s">
         <v>74</v>
       </c>
       <c r="F4"/>
@@ -4666,16 +5216,16 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="13"/>
+      <c r="E5" s="8"/>
       <c r="F5"/>
       <c r="G5"/>
     </row>
@@ -4683,13 +5233,13 @@
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="7" t="s">
         <v>192</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="7" t="s">
         <v>193</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -4702,16 +5252,16 @@
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="7" t="s">
         <v>194</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="8" t="s">
         <v>74</v>
       </c>
       <c r="F7"/>
@@ -4721,16 +5271,16 @@
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="E8" s="13"/>
+      <c r="E8" s="8"/>
       <c r="F8"/>
       <c r="G8"/>
     </row>
@@ -4738,13 +5288,13 @@
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="12" t="s">
+      <c r="C9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>193</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -4757,13 +5307,13 @@
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="7" t="s">
         <v>198</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="9" t="s">
         <v>199</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -4776,16 +5326,16 @@
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="8" t="s">
         <v>74</v>
       </c>
       <c r="F11"/>
@@ -4795,16 +5345,16 @@
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="13"/>
+      <c r="E12" s="8"/>
       <c r="F12"/>
       <c r="G12"/>
     </row>
@@ -4812,13 +5362,13 @@
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="7" t="s">
         <v>192</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="7" t="s">
         <v>193</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -4831,16 +5381,16 @@
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="7" t="s">
         <v>194</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="8" t="s">
         <v>74</v>
       </c>
       <c r="F14"/>
@@ -4850,16 +5400,16 @@
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="E15" s="13"/>
+      <c r="E15" s="8"/>
       <c r="F15"/>
       <c r="G15"/>
     </row>
@@ -4867,13 +5417,13 @@
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="12" t="s">
+      <c r="C16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>193</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -4889,7 +5439,7 @@
       <c r="B17" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -4967,13 +5517,13 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="7" t="s">
         <v>204</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="7" t="s">
         <v>205</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -4986,16 +5536,16 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="8" t="s">
         <v>74</v>
       </c>
       <c r="F4"/>
@@ -5005,16 +5555,16 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="E5" s="6"/>
+      <c r="E5" s="8"/>
       <c r="F5"/>
       <c r="G5"/>
     </row>
@@ -5022,16 +5572,16 @@
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="8" t="s">
         <v>74</v>
       </c>
       <c r="F6"/>
@@ -5041,16 +5591,16 @@
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="E7" s="6"/>
+      <c r="E7" s="8"/>
       <c r="F7"/>
       <c r="G7"/>
     </row>
@@ -5058,16 +5608,16 @@
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="8" t="s">
         <v>74</v>
       </c>
       <c r="F8"/>
@@ -5077,16 +5627,16 @@
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="E9" s="6"/>
+      <c r="E9" s="8"/>
       <c r="F9"/>
       <c r="G9"/>
     </row>
@@ -5094,16 +5644,16 @@
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="8" t="s">
         <v>74</v>
       </c>
       <c r="F10"/>
@@ -5113,16 +5663,16 @@
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="E11" s="6"/>
+      <c r="E11" s="8"/>
       <c r="F11"/>
       <c r="G11"/>
     </row>
@@ -5130,16 +5680,16 @@
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="8" t="s">
         <v>74</v>
       </c>
       <c r="F12"/>
@@ -5149,16 +5699,16 @@
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="E13" s="6"/>
+      <c r="E13" s="8"/>
       <c r="F13"/>
       <c r="G13"/>
     </row>
@@ -5166,16 +5716,16 @@
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="8" t="s">
         <v>74</v>
       </c>
       <c r="F14"/>
@@ -5185,16 +5735,16 @@
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="E15" s="6"/>
+      <c r="E15" s="8"/>
       <c r="F15"/>
       <c r="G15"/>
     </row>
@@ -5202,13 +5752,13 @@
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="C16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>114</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -5285,13 +5835,13 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="5" t="s">
         <v>232</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -5304,16 +5854,16 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>233</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F4" s="4"/>
@@ -5323,16 +5873,16 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="3"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
@@ -5340,16 +5890,16 @@
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F6" s="4"/>
@@ -5359,16 +5909,16 @@
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="3"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
@@ -5376,16 +5926,16 @@
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F8" s="4"/>
@@ -5395,16 +5945,16 @@
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="E9" s="9"/>
+      <c r="E9" s="3"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
@@ -5412,16 +5962,16 @@
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="E10" s="9"/>
+      <c r="E10" s="3"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
@@ -5429,16 +5979,16 @@
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F11" s="4"/>
@@ -5448,16 +5998,16 @@
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="E12" s="9"/>
+      <c r="E12" s="3"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
@@ -5465,13 +6015,13 @@
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="5" t="s">
         <v>99</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="5" t="s">
         <v>114</v>
       </c>
       <c r="E13" s="1" t="s">

--- a/LFS.xlsx
+++ b/LFS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12465" firstSheet="7" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="sceneManager" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="567">
   <si>
     <t>orderID</t>
   </si>
@@ -262,7 +262,7 @@
     <t>长按某个元素N秒</t>
   </si>
   <si>
-    <t>tapLong</t>
+    <t>longPress</t>
   </si>
   <si>
     <t>N</t>
@@ -1537,13 +1537,199 @@
     <t>长按地址出发编辑菜单</t>
   </si>
   <si>
-    <t>3000</t>
-  </si>
-  <si>
     <t>点击删除地址</t>
   </si>
   <si>
     <t>com.gonlan.iplaymtg:id/delete_tv</t>
+  </si>
+  <si>
+    <t>判断删除是否成功</t>
+  </si>
+  <si>
+    <t>退出重进后判断删除是否成功</t>
+  </si>
+  <si>
+    <t>点击个性化设置</t>
+  </si>
+  <si>
+    <t>com.gonlan.iplaymtg:id/personalSettingTv</t>
+  </si>
+  <si>
+    <t>获取个性化设置标签名称</t>
+  </si>
+  <si>
+    <t>校验个性化设置标签名称是否正确</t>
+  </si>
+  <si>
+    <t>个性化设置</t>
+  </si>
+  <si>
+    <t>点击关闭个性化内容开关</t>
+  </si>
+  <si>
+    <t>点击确认关闭按钮</t>
+  </si>
+  <si>
+    <t>com.gonlan.iplaymtg:id/button2</t>
+  </si>
+  <si>
+    <t>再次关闭开关</t>
+  </si>
+  <si>
+    <t>com.gonlan.iplaymtg:id/userset_page_cancel</t>
+  </si>
+  <si>
+    <t>534,879,534,261,1000</t>
+  </si>
+  <si>
+    <t>点击视频自动播放</t>
+  </si>
+  <si>
+    <t>com.gonlan.iplaymtg:id/videoPlayTv</t>
+  </si>
+  <si>
+    <t>获取视频自动播放标签名称</t>
+  </si>
+  <si>
+    <t>校验视频自动播放标签名称是否正确</t>
+  </si>
+  <si>
+    <t>视频自动播放</t>
+  </si>
+  <si>
+    <t>校验选中仅WI-FI模式</t>
+  </si>
+  <si>
+    <t>com.gonlan.iplaymtg:id/wifiIv</t>
+  </si>
+  <si>
+    <t>校验未选中禁止自动播放</t>
+  </si>
+  <si>
+    <t>com.gonlan.iplaymtg:id/noAutoPlayIv</t>
+  </si>
+  <si>
+    <t>校验未选中移动流量和wi-fi</t>
+  </si>
+  <si>
+    <t>com.gonlan.iplaymtg:id/allIv</t>
+  </si>
+  <si>
+    <t>点击禁止自动播放按钮</t>
+  </si>
+  <si>
+    <t>com.gonlan.iplaymtg:id/noAutoPlayRlay</t>
+  </si>
+  <si>
+    <t>校验选未选中仅WI-FI模式</t>
+  </si>
+  <si>
+    <t>校验选中禁止自动播放</t>
+  </si>
+  <si>
+    <t>点击仅WI-FI模式</t>
+  </si>
+  <si>
+    <t>com.gonlan.iplaymtg:id/wifiRlay</t>
+  </si>
+  <si>
+    <t>开启仅Wi-Fi环境有图</t>
+  </si>
+  <si>
+    <t>关闭仅Wi-Fi环境有图</t>
+  </si>
+  <si>
+    <t>开启隐藏我的动态</t>
+  </si>
+  <si>
+    <t>com.gonlan.iplaymtg:id/change_person_iv</t>
+  </si>
+  <si>
+    <t>关闭隐藏我的动态</t>
+  </si>
+  <si>
+    <t>点击主页帐号展示</t>
+  </si>
+  <si>
+    <t>com.gonlan.iplaymtg:id/change_game</t>
+  </si>
+  <si>
+    <t>获取账号信息标签名称</t>
+  </si>
+  <si>
+    <t>com.gonlan.iplaymtg:id/shop_title</t>
+  </si>
+  <si>
+    <t>校验账号信息标签名称是否正确</t>
+  </si>
+  <si>
+    <t>帐号信息</t>
+  </si>
+  <si>
+    <t>点击添加帐号</t>
+  </si>
+  <si>
+    <t>com.gonlan.iplaymtg:id/news_find_tv</t>
+  </si>
+  <si>
+    <t>点击展开选择类目</t>
+  </si>
+  <si>
+    <t>点击选中炉石传说</t>
+  </si>
+  <si>
+    <t>//*[@text="炉石传说"]</t>
+  </si>
+  <si>
+    <t>获取选中后的类目名称</t>
+  </si>
+  <si>
+    <t>校验选中后的类目名称是否正确</t>
+  </si>
+  <si>
+    <t>炉石传说</t>
+  </si>
+  <si>
+    <t>输入帐号信息</t>
+  </si>
+  <si>
+    <t>com.gonlan.iplaymtg:id/number_info</t>
+  </si>
+  <si>
+    <t>test123</t>
+  </si>
+  <si>
+    <t>com.gonlan.iplaymtg:id/save_tv</t>
+  </si>
+  <si>
+    <t>获取列表中的游戏类目名称</t>
+  </si>
+  <si>
+    <t>com.gonlan.iplaymtg:id/conversation_name</t>
+  </si>
+  <si>
+    <t>校验列表中的游戏类目名称是否正确</t>
+  </si>
+  <si>
+    <t>获取列表中的游戏帐号信息</t>
+  </si>
+  <si>
+    <t>com.gonlan.iplaymtg:id/conversation_last_context</t>
+  </si>
+  <si>
+    <t>校验获取列表中的游戏帐号信息是否正确</t>
+  </si>
+  <si>
+    <t>滑动模块出现删除按钮</t>
+  </si>
+  <si>
+    <t>780,360,180,360,1000</t>
+  </si>
+  <si>
+    <t>点击删除按钮</t>
+  </si>
+  <si>
+    <t>com.gonlan.iplaymtg:id/btnDelete</t>
   </si>
 </sst>
 </file>
@@ -4749,10 +4935,10 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.25" defaultRowHeight="22" customHeight="1" outlineLevelCol="6"/>
@@ -5357,8 +5543,8 @@
       <c r="D36" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>75</v>
+      <c r="E36" s="3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:4">
@@ -5686,7 +5872,7 @@
         <v>77</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>502</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:5">
@@ -5694,15 +5880,749 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D57" s="2" t="s">
+      <c r="E57" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="1:4">
+      <c r="A58" s="3">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="C58" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="1:5">
+      <c r="A59" s="3">
+        <v>58</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="1:5">
+      <c r="A60" s="3">
+        <v>59</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="1:4">
+      <c r="A61" s="3">
+        <v>60</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="1:5">
+      <c r="A62" s="3">
+        <v>61</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="1:5">
+      <c r="A63" s="3">
+        <v>62</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="1:5">
+      <c r="A64" s="3">
+        <v>63</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="1:4">
+      <c r="A65" s="3">
+        <v>64</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="1:5">
+      <c r="A66" s="3">
+        <v>65</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="1:5">
+      <c r="A67" s="3">
+        <v>66</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="1:5">
+      <c r="A68" s="3">
+        <v>67</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="1:5">
+      <c r="A69" s="3">
+        <v>68</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="1:4">
+      <c r="A70" s="3">
+        <v>69</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="1:4">
+      <c r="A71" s="3">
+        <v>70</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="1:5">
+      <c r="A72" s="3">
+        <v>71</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="1:5">
+      <c r="A73" s="3">
+        <v>72</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="1:4">
+      <c r="A74" s="3">
+        <v>73</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="1:4">
+      <c r="A75" s="3">
+        <v>74</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="1:4">
+      <c r="A76" s="3">
+        <v>75</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="1:4">
+      <c r="A77" s="3">
+        <v>76</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="78" customHeight="1" spans="1:5">
+      <c r="A78" s="3">
+        <v>77</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="79" customHeight="1" spans="1:4">
+      <c r="A79" s="3">
+        <v>78</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="80" customHeight="1" spans="1:4">
+      <c r="A80" s="3">
+        <v>79</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="81" customHeight="1" spans="1:4">
+      <c r="A81" s="3">
+        <v>80</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="82" customHeight="1" spans="1:5">
+      <c r="A82" s="3">
+        <v>81</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="83" customHeight="1" spans="1:5">
+      <c r="A83" s="3">
+        <v>82</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="84" customHeight="1" spans="1:5">
+      <c r="A84" s="3">
+        <v>83</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="85" customHeight="1" spans="1:5">
+      <c r="A85" s="3">
+        <v>84</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="86" customHeight="1" spans="1:5">
+      <c r="A86" s="3">
+        <v>85</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="87" customHeight="1" spans="1:5">
+      <c r="A87" s="3">
+        <v>86</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="88" customHeight="1" spans="1:5">
+      <c r="A88" s="3">
+        <v>87</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="89" customHeight="1" spans="1:5">
+      <c r="A89" s="3">
+        <v>88</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="90" customHeight="1" spans="1:4">
+      <c r="A90" s="3">
+        <v>89</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="91" customHeight="1" spans="1:5">
+      <c r="A91" s="3">
+        <v>90</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="92" customHeight="1" spans="1:5">
+      <c r="A92" s="3">
+        <v>91</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="93" customHeight="1" spans="1:5">
+      <c r="A93" s="3">
+        <v>92</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="94" customHeight="1" spans="1:5">
+      <c r="A94" s="3">
+        <v>93</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="95" customHeight="1" spans="1:4">
+      <c r="A95" s="3">
+        <v>94</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="96" customHeight="1" spans="1:6">
+      <c r="A96" s="3">
+        <v>95</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="97" customHeight="1" spans="1:5">
+      <c r="A97" s="3">
+        <v>96</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="98" customHeight="1" spans="1:5">
+      <c r="A98" s="3">
+        <v>97</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="99" customHeight="1" spans="1:4">
+      <c r="A99" s="3">
+        <v>98</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="100" customHeight="1" spans="1:5">
+      <c r="A100" s="3">
+        <v>99</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="101" customHeight="1" spans="1:4">
+      <c r="A101" s="3">
+        <v>100</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="102" customHeight="1" spans="1:4">
+      <c r="A102" s="3">
+        <v>101</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="103" customHeight="1" spans="1:5">
+      <c r="A103" s="3">
+        <v>102</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="E103" s="1" t="s">
         <v>75</v>
       </c>
     </row>
@@ -5795,8 +6715,8 @@
   <sheetPr/>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.25" defaultRowHeight="22" customHeight="1" outlineLevelCol="6"/>

--- a/LFS.xlsx
+++ b/LFS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" firstSheet="15" activeTab="22"/>
+    <workbookView windowWidth="28800" windowHeight="12465" firstSheet="13" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="sceneManager" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2855" uniqueCount="955">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2908" uniqueCount="970">
   <si>
     <t>orderID</t>
   </si>
@@ -2750,111 +2750,114 @@
     <t>81</t>
   </si>
   <si>
+    <t>//*[@text='发送']</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>获取支持方标签文案</t>
+  </si>
+  <si>
+    <t>com.gonlan.iplaymtg:id/pointTv</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>校验支持方标签文案是否正确</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>获取留言内容</t>
+  </si>
+  <si>
+    <t>(//*[@resource-id='com.gonlan.iplaymtg:id/article_review'])[1]</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>校验留言内容是否正确</t>
+  </si>
+  <si>
+    <t xml:space="preserve">支持蓝方的观点。@Brian丶WY </t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>点击进入蓝方观点评论</t>
+  </si>
+  <si>
+    <t>com.gonlan.iplaymtg:id/bluePointTv</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>点击第一张留言图片</t>
+  </si>
+  <si>
+    <t>//*[@resource-id='com.gonlan.iplaymtg:id/rl4']/android.widget.ImageView[1]</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>获取图片数量</t>
+  </si>
+  <si>
+    <t>com.gonlan.iplaymtg:id/counter</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>校验图片数量是否正确</t>
+  </si>
+  <si>
+    <t>1/6</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>点击关闭图片按钮</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>发帖+问答gaeaUUID</t>
+  </si>
+  <si>
+    <t>勾选问答选项</t>
+  </si>
+  <si>
+    <t>com.gonlan.iplaymtg:id/qaaIv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  sendkeys</t>
+  </si>
+  <si>
+    <t>营地问答</t>
+  </si>
+  <si>
+    <t>这个需求做不了</t>
+  </si>
+  <si>
     <t>com.gonlan.iplaymtg:id/send_tv</t>
   </si>
   <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>获取支方标签文案</t>
-  </si>
-  <si>
-    <t>com.gonlan.iplaymtg:id/pointTv</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>校验支方标签文案是否正确</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>获取留言内容</t>
-  </si>
-  <si>
-    <t>(//*[@resource-id='com.gonlan.iplaymtg:id/article_review'])[1]</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>校验留言内容是否正确</t>
-  </si>
-  <si>
-    <t xml:space="preserve">支持蓝方的观点。@Brian丶WY </t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>点击进入蓝方观点评论</t>
-  </si>
-  <si>
-    <t>com.gonlan.iplaymtg:id/bluePointTv</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>点击第一张留言图片</t>
-  </si>
-  <si>
-    <t>//*[@resource-id='com.gonlan.iplaymtg:id/rl4']/android.widget.ImageView[1]</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>获取图片数量</t>
-  </si>
-  <si>
-    <t>com.gonlan.iplaymtg:id/counter</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>校验图片数量是否正确</t>
-  </si>
-  <si>
-    <t>1/6</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>点击关闭图片按钮</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>发帖+问答gaeaUUID</t>
-  </si>
-  <si>
-    <t>勾选问答选项</t>
-  </si>
-  <si>
-    <t>com.gonlan.iplaymtg:id/qaaIv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  sendkeys</t>
-  </si>
-  <si>
-    <t>营地问答</t>
-  </si>
-  <si>
-    <t>这个需求做不了</t>
-  </si>
-  <si>
     <t xml:space="preserve">这个需求做不了@Brian丶WY </t>
   </si>
   <si>
@@ -2864,6 +2867,9 @@
     <t>com.gonlan.iplaymtg:id/timeSortTv</t>
   </si>
   <si>
+    <t>//*[@resource-id='com.gonlan.iplaymtg:id/selectIv']</t>
+  </si>
+  <si>
     <t>点击文章</t>
   </si>
   <si>
@@ -2873,7 +2879,7 @@
     <t>等待文章加载</t>
   </si>
   <si>
-    <t>6000</t>
+    <t>14000</t>
   </si>
   <si>
     <t>输入文章标题</t>
@@ -2901,6 +2907,45 @@
   </si>
   <si>
     <t>//*[@text='图片']</t>
+  </si>
+  <si>
+    <t>点击下一步按钮</t>
+  </si>
+  <si>
+    <t>com.gonlan.iplaymtg:id/next_tv</t>
+  </si>
+  <si>
+    <t>点击上传封面</t>
+  </si>
+  <si>
+    <t>//*[@text='点击上传封面']</t>
+  </si>
+  <si>
+    <t>点击'从相册选择'</t>
+  </si>
+  <si>
+    <t>选中最近相册中的第六张照片</t>
+  </si>
+  <si>
+    <t>(//*[@resource-id='com.gonlan.iplaymtg:id/is_select'])[6]</t>
+  </si>
+  <si>
+    <t>点击封面编辑框中的确认按钮</t>
+  </si>
+  <si>
+    <t>com.gonlan.iplaymtg:id/release</t>
+  </si>
+  <si>
+    <t>点击文章发布按钮</t>
+  </si>
+  <si>
+    <t>选中标签炉石传说</t>
+  </si>
+  <si>
+    <t>(//*[@text='炉石传说'])[1]</t>
+  </si>
+  <si>
+    <t>com.gonlan.iplaymtg:id/page_right_tv</t>
   </si>
 </sst>
 </file>
@@ -2908,10 +2953,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -2938,29 +2983,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3003,17 +3025,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3043,8 +3063,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3067,7 +3088,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3088,55 +3133,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3154,13 +3157,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3172,7 +3175,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3184,25 +3265,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3220,49 +3301,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3273,32 +3318,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3350,6 +3369,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3364,15 +3418,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3381,10 +3426,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3393,130 +3438,130 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3941,7 +3986,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.25" defaultRowHeight="22" customHeight="1" outlineLevelCol="2"/>
@@ -4146,7 +4191,7 @@
         <v>38</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:3">
@@ -4168,7 +4213,7 @@
         <v>42</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -10134,8 +10179,8 @@
   <sheetPr/>
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD5"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82:E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.25" defaultRowHeight="22" customHeight="1" outlineLevelCol="5"/>
@@ -11485,7 +11530,7 @@
         <v>216</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>904</v>
@@ -11695,7 +11740,7 @@
   <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:E21"/>
+      <selection activeCell="A24" sqref="$A24:$XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.25" defaultRowHeight="22" customHeight="1" outlineLevelCol="5"/>
@@ -12690,7 +12735,7 @@
         <v>43</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>904</v>
+        <v>939</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>87</v>
@@ -12738,7 +12783,7 @@
         <v>76</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
     </row>
     <row r="64" s="1" customFormat="1" customHeight="1" spans="1:4">
@@ -12760,13 +12805,13 @@
         <v>876</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>87</v>
@@ -12863,10 +12908,10 @@
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.25" defaultRowHeight="22" customHeight="1" outlineLevelCol="5"/>
@@ -12981,106 +13026,97 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>732</v>
+      <c r="B7" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>733</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>791</v>
+      <c r="B8" s="4" t="s">
+        <v>732</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>792</v>
+        <v>733</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:5">
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>942</v>
+        <v>791</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>943</v>
+        <v>792</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:4">
+    <row r="10" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>944</v>
+        <v>791</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:6">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="1:5">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:4">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>950</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>87</v>
+        <v>947</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:6">
@@ -13088,19 +13124,19 @@
         <v>19</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>79</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:5">
@@ -13108,95 +13144,98 @@
         <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:5">
+    <row r="15" customHeight="1" spans="1:6">
       <c r="A15" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>786</v>
+        <v>953</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>509</v>
+        <v>952</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="1:4">
+        <v>79</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:5">
       <c r="A16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>112</v>
+        <v>955</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="1:4">
+        <v>956</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:5">
       <c r="A17" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="1:5">
+        <v>509</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:4">
       <c r="A18" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>761</v>
+        <v>112</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>789</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="1:5">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:4">
       <c r="A19" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>764</v>
+        <v>788</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>790</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:5">
@@ -13204,13 +13243,13 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>754</v>
+        <v>761</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>755</v>
+        <v>789</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>87</v>
@@ -13221,13 +13260,13 @@
         <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>513</v>
+        <v>790</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>87</v>
@@ -13238,13 +13277,13 @@
         <v>37</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>770</v>
+        <v>955</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>771</v>
+        <v>956</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>87</v>
@@ -13255,13 +13294,13 @@
         <v>39</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>774</v>
+        <v>513</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>87</v>
@@ -13272,15 +13311,202 @@
         <v>41</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:5">
+      <c r="A25" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:5">
+      <c r="A26" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>776</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="2" t="s">
+      <c r="C26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>777</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E26" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:5">
+      <c r="A27" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:5">
+      <c r="A28" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:5">
+      <c r="A29" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:5">
+      <c r="A30" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:5">
+      <c r="A31" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:5">
+      <c r="A32" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:5">
+      <c r="A33" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:5">
+      <c r="A34" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:5">
+      <c r="A35" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>87</v>
       </c>
     </row>
@@ -13691,7 +13917,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.25" defaultRowHeight="22" customHeight="1" outlineLevelCol="5"/>
